--- a/doc/功能清单.xlsx
+++ b/doc/功能清单.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>产品类型</t>
   </si>
@@ -41,12 +41,12 @@
     <t>使用范围</t>
   </si>
   <si>
+    <t>预计工时（人日）</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>进度</t>
-  </si>
-  <si>
     <t>用户端(小程序)</t>
   </si>
   <si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>管理员登录控制台</t>
+  </si>
+  <si>
+    <t>额外功能：权限管理，精确到按钮级别</t>
   </si>
   <si>
     <t>√</t>
@@ -363,12 +366,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -704,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,16 +737,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -746,89 +755,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,6 +852,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,20 +1392,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="30.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="42.4444444444444" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="23.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2"/>
+    <col min="5" max="5" width="30.2222222222222" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1409,15 +1421,15 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1429,10 +1441,13 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="28.8" spans="1:5">
-      <c r="A3" s="5"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="28.8" spans="1:6">
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1442,10 +1457,13 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="28.8" spans="1:5">
-      <c r="A4" s="5"/>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="28.8" spans="1:6">
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1455,10 +1473,13 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1468,10 +1489,13 @@
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1481,10 +1505,13 @@
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1494,10 +1521,13 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1507,10 +1537,13 @@
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6"/>
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1520,10 +1553,13 @@
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1533,12 +1569,15 @@
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1546,12 +1585,15 @@
         <v>29</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1561,10 +1603,13 @@
       <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1574,10 +1619,13 @@
       <c r="D13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:5">
-      <c r="A14" s="5"/>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:6">
+      <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1587,10 +1635,13 @@
       <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="22" customHeight="1" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="22" customHeight="1" spans="1:7">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1600,104 +1651,139 @@
         <v>40</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="5">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:6">
-      <c r="A16" s="5"/>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:7">
+      <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="28.8" spans="1:6">
-      <c r="A17" s="5"/>
+    </row>
+    <row r="17" ht="28.8" spans="1:7">
+      <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" ht="28.8" spans="1:5">
-      <c r="A22" s="5"/>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="28.8" spans="1:6">
+      <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="2">
+        <f>SUM(E2:E23)</f>
         <v>54</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
